--- a/Processed_data/Nutrients_Transect_level.xlsx
+++ b/Processed_data/Nutrients_Transect_level.xlsx
@@ -1313,6 +1313,9 @@
       <c r="D32">
         <v>7.041499999999999</v>
       </c>
+      <c r="E32">
+        <v>1.2815</v>
+      </c>
       <c r="F32">
         <v>59.9</v>
       </c>
@@ -1790,6 +1793,9 @@
       <c r="D48">
         <v>4.326499999999999</v>
       </c>
+      <c r="E48">
+        <v>6.2635</v>
+      </c>
       <c r="F48">
         <v>93</v>
       </c>
@@ -1842,7 +1848,7 @@
         </is>
       </c>
       <c r="C50">
-        <v>0.3445378151260504</v>
+        <v>0.1972689075630252</v>
       </c>
       <c r="D50">
         <v>4.2835</v>
@@ -1902,7 +1908,7 @@
         </is>
       </c>
       <c r="C52">
-        <v>0.3445378151260504</v>
+        <v>0.1972689075630252</v>
       </c>
       <c r="D52">
         <v>3.295</v>
@@ -1970,6 +1976,9 @@
       <c r="E54">
         <v>0.16525</v>
       </c>
+      <c r="F54">
+        <v>72.65000000000001</v>
+      </c>
       <c r="G54">
         <v>5.933225</v>
       </c>
@@ -1997,6 +2006,9 @@
       <c r="E55">
         <v>0.22325</v>
       </c>
+      <c r="F55">
+        <v>80.45</v>
+      </c>
       <c r="G55">
         <v>5.8972</v>
       </c>
@@ -2044,6 +2056,9 @@
         <is>
           <t>2</t>
         </is>
+      </c>
+      <c r="C57">
+        <v>0.05</v>
       </c>
       <c r="D57">
         <v>3.924</v>
